--- a/dist/document/dest/2020/10/doctors/bđh.xlsx
+++ b/dist/document/dest/2020/10/doctors/bđh.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>30</v>
       </c>
-      <c r="C2" s="1">
-        <v>74700</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>15</v>
       </c>
-      <c r="C3" s="1">
-        <v>19125</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -427,7 +421,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="1">
-        <v>93825</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/bđh.xlsx
+++ b/dist/document/dest/2020/10/doctors/bđh.xlsx
@@ -399,18 +399,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Alpha Choay (VN)</v>
+        <v xml:space="preserve">Mg B6 </v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>127200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Panadol Extra (Paracetamol, caffeine)</v>
+        <v xml:space="preserve">Mg B6 </v>
       </c>
       <c r="B3" s="1">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>127200</v>
       </c>
     </row>
     <row r="4">
@@ -418,10 +424,10 @@
         <v>Tổng cộng</v>
       </c>
       <c r="B4" s="1">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1">
-        <v>NaN</v>
+        <v>254400</v>
       </c>
     </row>
   </sheetData>
